--- a/src/test/resources/TestData/LoginData.xlsx
+++ b/src/test/resources/TestData/LoginData.xlsx
@@ -2,10 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="login Data" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
@@ -113,6 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -358,13 +361,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.63"/>
-    <col customWidth="1" min="3" max="3" width="34.13"/>
+    <col min="2" max="2" customWidth="true" width="30.63"/>
+    <col min="3" max="3" customWidth="true" width="34.13"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/src/test/resources/TestData/LoginData.xlsx
+++ b/src/test/resources/TestData/LoginData.xlsx
@@ -2,120 +2,314 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet state="visible" name="login Data" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="login Data2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="login Data 3" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+  <si>
+    <t>ema</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>expectedResult_successMessage</t>
+  </si>
+  <si>
+    <t>tomsmith</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!</t>
+  </si>
+  <si>
+    <t>tomsmith2</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!2</t>
+  </si>
+  <si>
+    <t>tomsmith3</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!3</t>
+  </si>
+  <si>
+    <t>tomsmith4</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!4</t>
+  </si>
+  <si>
+    <t>tomsmith5</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!5</t>
+  </si>
+  <si>
+    <t>tomsmith6</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!6</t>
+  </si>
+  <si>
+    <t>tomsmith7</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!7</t>
+  </si>
+  <si>
+    <t>tomsmith8</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!8</t>
+  </si>
+  <si>
+    <t>tomsmith9</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!9</t>
+  </si>
+  <si>
+    <t>tomsmith10</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!10</t>
+  </si>
+  <si>
+    <t>tomsmith11</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!11</t>
+  </si>
+  <si>
+    <t>tomsmith12</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!12</t>
+  </si>
+  <si>
+    <t>tomsmith13</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!13</t>
+  </si>
+  <si>
+    <t>tomsmith14</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!14</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>expectedResult_successMessage</t>
-  </si>
-  <si>
-    <t>tomsmith</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!</t>
-  </si>
-  <si>
-    <t>You logged into a secure area!</t>
-  </si>
-  <si>
-    <t>tomsmith2</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!2</t>
-  </si>
-  <si>
-    <t>tomsmith3</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!3</t>
-  </si>
-  <si>
-    <t>tomsmith4</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!4</t>
-  </si>
-  <si>
-    <t>tomsmith5</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!5</t>
-  </si>
-  <si>
-    <t>tomsmith6</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!6</t>
-  </si>
-  <si>
-    <t>tomsmith7</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!7</t>
-  </si>
-  <si>
-    <t>tomsmith8</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!8</t>
-  </si>
-  <si>
-    <t>tomsmith9</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!9</t>
-  </si>
-  <si>
-    <t>tomsmith10</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!10</t>
-  </si>
-  <si>
-    <t>tomsmith11</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!11</t>
-  </si>
-  <si>
-    <t>tomsmith12</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!12</t>
-  </si>
-  <si>
-    <t>tomsmith13</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!13</t>
-  </si>
-  <si>
-    <t>tomsmith14</t>
-  </si>
-  <si>
-    <t>SuperSecretPassword!14</t>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>email1</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!11</t>
+  </si>
+  <si>
+    <t>email2</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!12</t>
+  </si>
+  <si>
+    <t>email3</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!13</t>
+  </si>
+  <si>
+    <t>email4</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!14</t>
+  </si>
+  <si>
+    <t>email5</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!15</t>
+  </si>
+  <si>
+    <t>email6</t>
+  </si>
+  <si>
+    <t>tomsmith15</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!15</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!16</t>
+  </si>
+  <si>
+    <t>email7</t>
+  </si>
+  <si>
+    <t>tomsmith16</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!16</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!17</t>
+  </si>
+  <si>
+    <t>email8</t>
+  </si>
+  <si>
+    <t>tomsmith17</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!17</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!18</t>
+  </si>
+  <si>
+    <t>email9</t>
+  </si>
+  <si>
+    <t>tomsmith18</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!18</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!19</t>
+  </si>
+  <si>
+    <t>email10</t>
+  </si>
+  <si>
+    <t>tomsmith19</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!19</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!20</t>
+  </si>
+  <si>
+    <t>email11</t>
+  </si>
+  <si>
+    <t>tomsmith20</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!20</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!21</t>
+  </si>
+  <si>
+    <t>email12</t>
+  </si>
+  <si>
+    <t>tomsmith21</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!21</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!22</t>
+  </si>
+  <si>
+    <t>email13</t>
+  </si>
+  <si>
+    <t>tomsmith22</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!22</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!23</t>
+  </si>
+  <si>
+    <t>email14</t>
+  </si>
+  <si>
+    <t>tomsmith23</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!23</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!24</t>
+  </si>
+  <si>
+    <t>email15</t>
+  </si>
+  <si>
+    <t>tomsmith24</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!24</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!25</t>
+  </si>
+  <si>
+    <t>email16</t>
+  </si>
+  <si>
+    <t>tomsmith25</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!25</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!26</t>
+  </si>
+  <si>
+    <t>email17</t>
+  </si>
+  <si>
+    <t>tomsmith26</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!26</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!27</t>
+  </si>
+  <si>
+    <t>email18</t>
+  </si>
+  <si>
+    <t>tomsmith27</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!27</t>
+  </si>
+  <si>
+    <t>You logged into a secure area!28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -159,6 +353,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -361,14 +563,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.63"/>
-    <col min="3" max="3" customWidth="true" width="34.13"/>
+    <col customWidth="1" min="2" max="2" width="30.63"/>
+    <col customWidth="1" min="3" max="3" width="34.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,4 +740,303 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="31.13"/>
+    <col customWidth="1" min="4" max="4" width="34.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>